--- a/flows/SOYB_fund_flow_data.xlsx
+++ b/flows/SOYB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2975"/>
+  <dimension ref="A1:B2993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30185,6 +30185,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B2976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2984" t="n">
+        <v>0.60525</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2985" t="n">
+        <v>1.82325</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2986" t="n">
+        <v>0.60525</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2991" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2993" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
